--- a/applications/Brazil/Natal_validation.xlsx
+++ b/applications/Brazil/Natal_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>2935</v>
+        <v>2886</v>
       </c>
       <c r="B3">
-        <v>4456</v>
+        <v>4290</v>
       </c>
       <c r="C3">
-        <v>5914</v>
+        <v>5713</v>
       </c>
       <c r="D3">
-        <v>13229</v>
+        <v>12734</v>
       </c>
       <c r="I3">
         <v>95</v>
       </c>
       <c r="J3">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K3">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L3">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
